--- a/data/Tactical.xlsx
+++ b/data/Tactical.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7bd6fc4e1fffb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7bd6fc4e1fffb/Projetos/Master-Theses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B84B0C96-E2E7-4931-AAF1-8098F059DF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B1C1BC-C3A1-47A5-B667-1C28B904B830}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B84B0C96-E2E7-4931-AAF1-8098F059DF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD917652-C8D7-4544-AF8F-1531B90003B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8831CAF8-A6E0-4E12-9010-10DDF5CBE230}"/>
   </bookViews>
@@ -536,6 +536,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,7 +863,7 @@
   <dimension ref="A1:AH120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+      <selection activeCell="AH128" sqref="AH128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +901,7 @@
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="103.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="68.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
